--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Allied Digital Services Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -606,7 +606,7 @@
         <v>38.26</v>
       </c>
       <c r="H2">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I2">
         <v>-0.02</v>
@@ -677,13 +677,13 @@
         <v>88.61</v>
       </c>
       <c r="G3">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H3">
         <v>58.71</v>
       </c>
       <c r="I3">
-        <v>-2.587333333333333</v>
+        <v>-2.59</v>
       </c>
       <c r="J3">
         <v>8.56</v>
@@ -751,13 +751,13 @@
         <v>155.81</v>
       </c>
       <c r="G4">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H4">
         <v>103.12</v>
       </c>
       <c r="I4">
-        <v>-2.587333333333333</v>
+        <v>-2.59</v>
       </c>
       <c r="J4">
         <v>12.62</v>
@@ -825,13 +825,13 @@
         <v>300.42</v>
       </c>
       <c r="G5">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H5">
         <v>200.54</v>
       </c>
       <c r="I5">
-        <v>-2.587333333333333</v>
+        <v>-2.59</v>
       </c>
       <c r="J5">
         <v>21.74</v>
@@ -899,13 +899,13 @@
         <v>393.83</v>
       </c>
       <c r="G6">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H6">
         <v>246.42</v>
       </c>
       <c r="I6">
-        <v>-2.587333333333333</v>
+        <v>-2.59</v>
       </c>
       <c r="J6">
         <v>36.36</v>
@@ -973,13 +973,13 @@
         <v>474.28</v>
       </c>
       <c r="G7">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H7">
         <v>291.5</v>
       </c>
       <c r="I7">
-        <v>-2.587333333333333</v>
+        <v>-2.59</v>
       </c>
       <c r="J7">
         <v>39.4</v>
@@ -1225,7 +1225,7 @@
         <v>-6.78</v>
       </c>
       <c r="Q10">
-        <v>5.930526315789473</v>
+        <v>5.93</v>
       </c>
       <c r="R10">
         <v>3.41</v>
@@ -1420,7 +1420,7 @@
         <v>29.46</v>
       </c>
       <c r="H13">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I13">
         <v>3.96</v>
@@ -1494,7 +1494,7 @@
         <v>13.25</v>
       </c>
       <c r="H14">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I14">
         <v>0.98</v>
@@ -1568,7 +1568,7 @@
         <v>6.07</v>
       </c>
       <c r="H15">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I15">
         <v>-0.15</v>
@@ -1642,7 +1642,7 @@
         <v>13.58</v>
       </c>
       <c r="H16">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I16">
         <v>-0.72</v>
@@ -1716,7 +1716,7 @@
         <v>23.07</v>
       </c>
       <c r="H17">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1790,7 +1790,7 @@
         <v>24.12</v>
       </c>
       <c r="H18">
-        <v>88.8546153846154</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="I18">
         <v>0.09</v>
@@ -1861,7 +1861,7 @@
         <v>124.96</v>
       </c>
       <c r="G19">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H19">
         <v>28.59</v>
@@ -1935,7 +1935,7 @@
         <v>215.95</v>
       </c>
       <c r="G20">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H20">
         <v>88.92</v>
@@ -1968,7 +1968,7 @@
         <v>3.88</v>
       </c>
       <c r="R20">
-        <v>1.373157894736842</v>
+        <v>1.37</v>
       </c>
       <c r="S20">
         <v>3.88</v>
@@ -2009,7 +2009,7 @@
         <v>287.88</v>
       </c>
       <c r="G21">
-        <v>96.54833333333333</v>
+        <v>96.55</v>
       </c>
       <c r="H21">
         <v>135.61</v>
